--- a/TestCases/22mmODBallBearingCheck/PrinterSpecific/SnapmakerJ1s/Tests.xlsx
+++ b/TestCases/22mmODBallBearingCheck/PrinterSpecific/SnapmakerJ1s/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\PycharmProjects\3DPrintingQualityTesting\TestCases\22mmODBallBearingCheck\PrinterSpecific\SnapmakerJ1s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF20A713-DAAD-4A24-BA4A-219CF9CA4458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974E4522-3B4C-43F3-B5E5-87C0AA8A3E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{820611CD-3E50-4E0B-AA47-90727CFAA5F5}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +572,9 @@
       <c r="B8">
         <v>8.0299999999999994</v>
       </c>
+      <c r="C8">
+        <v>7.98</v>
+      </c>
       <c r="D8">
         <f t="shared" si="1"/>
         <v>2.9999999999999361E-2</v>
@@ -860,6 +863,9 @@
       <c r="B33">
         <v>22.03</v>
       </c>
+      <c r="C33">
+        <v>21.88</v>
+      </c>
       <c r="D33">
         <f t="shared" si="3"/>
         <v>3.0000000000001137E-2</v>
